--- a/server/files/TestCase/Testing.xlsx
+++ b/server/files/TestCase/Testing.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sadafnajam/Desktop/KnowledgeBase/server/files/TestCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{214F9FF0-3A8E-924D-906B-99E13858C3E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E560B9B-10DF-C549-A044-6CCED6EC7A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15340" xr2:uid="{6011F1DF-94F9-E246-B49A-717FD9EB4B7F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6011F1DF-94F9-E246-B49A-717FD9EB4B7F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bag Semantics" sheetId="1" r:id="rId1"/>
+    <sheet name="Standard Case" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="66">
   <si>
     <t>Bag Semantics</t>
   </si>
@@ -47,12 +48,6 @@
     <t>Query</t>
   </si>
   <si>
-    <t>project{a,c}[(project{a,b}[lipsky] natjoin project{b,c}[lipsky]) union (project{a,c}[lipsky] natjoin project{b,c}[lipsky])]</t>
-  </si>
-  <si>
-    <t>l/"</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
@@ -69,6 +64,174 @@
   </si>
   <si>
     <t>TEST CASE 2</t>
+  </si>
+  <si>
+    <t>Single table with all operations</t>
+  </si>
+  <si>
+    <t>multiple table with all operations</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Student, EnrolledIn, Subject</t>
+  </si>
+  <si>
+    <t>1) What are the names of students enrolled in cs3020?</t>
+  </si>
+  <si>
+    <t>project{name}[select{code='cs3010'}[(student natjoin enrolledIn)]]</t>
+  </si>
+  <si>
+    <t>π{a,c}[((π{a,b}[lipsky] natjoin π{b,c}[lipsky]) ∪ (π{a,c}[lipsky] natjoin π{b,c}[lipsky]))]</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Annotations is not coming</t>
+  </si>
+  <si>
+    <t>TEST CASE 3</t>
+  </si>
+  <si>
+    <t>2)What are the names of students in cs1500 or cs3010?</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>(project{name}[select{code='cs1500'}[(student natjoin enrolledin)]] union project{name}[select{code='cs1500'}[(student natjoin enrolledin)]])</t>
+  </si>
+  <si>
+    <t>NaN error</t>
+  </si>
+  <si>
+    <t>TEST CASE 4</t>
+  </si>
+  <si>
+    <t>3) What are the names of students who are taking a subject not taught by Roger?</t>
+  </si>
+  <si>
+    <t>Join of three table incorrect</t>
+  </si>
+  <si>
+    <t>RA=</t>
+  </si>
+  <si>
+    <t>project year,quantity(select listprice&gt;3.99</t>
+  </si>
+  <si>
+    <t>price &gt;750(store natjoin product))</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>store_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> product_id</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> brand_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>model_year</t>
+  </si>
+  <si>
+    <t>list_price</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>project{model_year,quantity}[(select{list_price &gt;=750}[(store natjoin product)])]</t>
+  </si>
+  <si>
+    <t>Ritchey Timberwolf Frameset - 2016'</t>
+  </si>
+  <si>
+    <t>'Trek Fuel EX 8 29 - 2016'</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project store_id,product_id((project store_id,product_id,quantity(Store natjoin Customer)) U Store)  </t>
+  </si>
+  <si>
+    <t>project{store_id, product_id}[(project{store_id, product_id, quantity}[store natjoin customer] union store)]</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> customer_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> order_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> order_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> required_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shipped_date</t>
+  </si>
+  <si>
+    <t>staff_id</t>
+  </si>
+  <si>
+    <t>'20160101'</t>
+  </si>
+  <si>
+    <t>'20160103'</t>
+  </si>
+  <si>
+    <t>'20160104'</t>
+  </si>
+  <si>
+    <t>'20160105'</t>
+  </si>
+  <si>
+    <t>'20160102'</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>project order_id(project order_id,store_id(Customer) Natjoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomer) natjoin project store_id,staff_id(Customer)) </t>
+  </si>
+  <si>
+    <t>project{order_id}[(project{order_id,store_id}[Customer] natjoin project{store_id,staff_id}[Customer])]</t>
   </si>
 </sst>
 </file>
@@ -97,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +285,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -135,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -147,6 +322,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,13 +351,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2527300</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6642100</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -214,13 +395,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>910854</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>8663979</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -246,6 +427,226 @@
         <a:xfrm>
           <a:off x="1749054" y="4051300"/>
           <a:ext cx="7753125" cy="4559300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9008325</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBFCD62-FBEE-4040-973C-3E8072FD1FD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="13601700"/>
+          <a:ext cx="9008325" cy="4152900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6248400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C4F720-E9BD-C046-A06D-19EF607B7D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1549400" y="10744200"/>
+          <a:ext cx="5537200" cy="2501900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9517502</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD24D9A-00EB-9941-AC14-B79CB6A10538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="927100" y="19380200"/>
+          <a:ext cx="9428602" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9442759</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C65B389-7974-5043-BE63-E639B3B21FE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="22567900"/>
+          <a:ext cx="9442759" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7366000</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA86BCB-FE15-5C47-8952-2C08E52187CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1346200" y="27698700"/>
+          <a:ext cx="6858000" cy="3670300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -554,17 +955,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8721B3-5DEA-9C4B-8462-51C7F6783940}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -573,48 +976,53 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -650,13 +1058,13 @@
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -676,7 +1084,7 @@
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -719,75 +1127,95 @@
       <c r="A32" s="5"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="C43" s="4"/>
-      <c r="E43" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="C48" s="4"/>
     </row>
@@ -804,7 +1232,9 @@
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -823,16 +1253,1037 @@
       <c r="A56" s="5"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A112:B112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD919282-335D-8A43-BFC9-FA66F5CBB3A9}">
+  <dimension ref="A1:O62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>2016</v>
+      </c>
+      <c r="J4">
+        <v>749.9</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>2106</v>
+      </c>
+      <c r="J5">
+        <v>2899.9</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>2106</v>
+      </c>
+      <c r="J8">
+        <v>2899.9</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>2016</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="O14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>259</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>175</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>259</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>175</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1212</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>523</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>23</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>23</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>27</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>23</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>23</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>22</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="J50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/server/files/TestCase/Testing.xlsx
+++ b/server/files/TestCase/Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sadafnajam/Desktop/KnowledgeBase/server/files/TestCase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E560B9B-10DF-C549-A044-6CCED6EC7A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5682906-CACC-724B-94FE-523AD51E7ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6011F1DF-94F9-E246-B49A-717FD9EB4B7F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6011F1DF-94F9-E246-B49A-717FD9EB4B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bag Semantics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
   <si>
     <t>Bag Semantics</t>
   </si>
@@ -81,18 +81,9 @@
     <t>1) What are the names of students enrolled in cs3020?</t>
   </si>
   <si>
-    <t>project{name}[select{code='cs3010'}[(student natjoin enrolledIn)]]</t>
-  </si>
-  <si>
     <t>π{a,c}[((π{a,b}[lipsky] natjoin π{b,c}[lipsky]) ∪ (π{a,c}[lipsky] natjoin π{b,c}[lipsky]))]</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Annotations is not coming</t>
-  </si>
-  <si>
     <t>TEST CASE 3</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>(project{name}[select{code='cs1500'}[(student natjoin enrolledin)]] union project{name}[select{code='cs1500'}[(student natjoin enrolledin)]])</t>
   </si>
   <si>
-    <t>NaN error</t>
-  </si>
-  <si>
     <t>TEST CASE 4</t>
   </si>
   <si>
@@ -232,13 +220,19 @@
   </si>
   <si>
     <t>project{order_id}[(project{order_id,store_id}[Customer] natjoin project{store_id,staff_id}[Customer])]</t>
+  </si>
+  <si>
+    <t>project{name}[(select{code='cs3010'}[(student natjoin enrolledIn)])]</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,6 +252,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -328,6 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,50 +439,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9008325</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBFCD62-FBEE-4040-973C-3E8072FD1FD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="13601700"/>
-          <a:ext cx="9008325" cy="4152900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -506,7 +463,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -550,7 +507,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -559,50 +516,6 @@
         <a:xfrm>
           <a:off x="927100" y="19380200"/>
           <a:ext cx="9428602" cy="3009900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9442759</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C65B389-7974-5043-BE63-E639B3B21FE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="22567900"/>
-          <a:ext cx="9442759" cy="3543300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -638,7 +551,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -647,6 +560,94 @@
         <a:xfrm>
           <a:off x="1346200" y="27698700"/>
           <a:ext cx="6858000" cy="3670300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8140700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>102677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4346B00D-815D-3949-85C2-43D2F4777858}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939800" y="13703301"/>
+          <a:ext cx="8039100" cy="3633276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7442200</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>5887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6EBE5E-080A-3D42-A88E-C82955B2FD12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1244600" y="22644100"/>
+          <a:ext cx="7035800" cy="3587287"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -955,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8721B3-5DEA-9C4B-8462-51C7F6783940}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -1127,22 +1128,22 @@
       <c r="A32" s="5"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>12</v>
       </c>
@@ -1151,7 +1152,7 @@
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>1</v>
       </c>
@@ -1160,7 +1161,7 @@
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -1169,53 +1170,50 @@
       </c>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="1" t="s">
-        <v>15</v>
+      <c r="B39" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="C48" s="4"/>
     </row>
@@ -1260,14 +1258,14 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
     </row>
-    <row r="71" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>12</v>
       </c>
@@ -1276,7 +1274,7 @@
       </c>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>1</v>
       </c>
@@ -1285,26 +1283,23 @@
       </c>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1311,7 @@
     </row>
     <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="4"/>
@@ -1344,10 +1339,10 @@
         <v>3</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -1360,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD919282-335D-8A43-BFC9-FA66F5CBB3A9}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -1388,50 +1383,50 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F1" s="8"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="O3" t="s">
         <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1445,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1474,7 +1469,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -1494,34 +1489,34 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1535,7 +1530,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -1555,16 +1550,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1580,10 +1575,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1591,45 +1586,45 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
         <v>49</v>
       </c>
-      <c r="G16" t="s">
+      <c r="K16" t="s">
         <v>50</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L16" t="s">
         <v>51</v>
       </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" t="s">
-        <v>55</v>
-      </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1652,13 +1647,13 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -1687,13 +1682,13 @@
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -1722,13 +1717,13 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -1757,13 +1752,13 @@
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L20">
         <v>3</v>
@@ -1792,13 +1787,13 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L21">
         <v>6</v>
@@ -1827,13 +1822,13 @@
         <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L22">
         <v>7</v>
@@ -1844,19 +1839,19 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1945,19 +1940,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2060,16 +2055,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2151,37 +2146,37 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="J50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2242,13 +2237,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
